--- a/app/views/excel_templates/comprobante-descartables-sa.xlsx
+++ b/app/views/excel_templates/comprobante-descartables-sa.xlsx
@@ -10,6 +10,9 @@
   <sheets>
     <sheet name="Factura" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Factura!$A$1:$H$41</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">Fecha:</t>
   </si>
@@ -28,7 +31,7 @@
     <t xml:space="preserve">5759 Naschel (San Luis)</t>
   </si>
   <si>
-    <t xml:space="preserve">(+54) 9 266 456-3944</t>
+    <t xml:space="preserve">(+54) 9 266 456-3944 - (+54) 9 266 490-5795</t>
   </si>
   <si>
     <t xml:space="preserve">ID venta:</t>
@@ -38,9 +41,6 @@
   </si>
   <si>
     <t xml:space="preserve">Tel.:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edgar Agustin Balestra</t>
   </si>
   <si>
     <t xml:space="preserve">Domicilio:</t>
@@ -350,7 +350,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -373,6 +373,10 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -447,6 +451,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -476,6 +484,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -671,9 +683,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>263880</xdr:colOff>
+      <xdr:colOff>260640</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
+      <xdr:rowOff>97200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -687,7 +699,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="450360" y="238320"/>
-          <a:ext cx="2218320" cy="694440"/>
+          <a:ext cx="2215080" cy="691200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -813,22 +825,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="6.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="7.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="6.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -840,6 +853,9 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4"/>
@@ -849,245 +865,269 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6"/>
-      <c r="B6" s="15" t="s">
+      <c r="G5" s="15"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7"/>
+      <c r="B6" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17" t="s">
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19" t="s">
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="20" t="n">
+      <c r="G7" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="H7" s="16"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="17"/>
     </row>
     <row r="8" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="21"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="21"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="22"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="25"/>
     </row>
     <row r="10" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="24"/>
-      <c r="B10" s="25" t="s">
+      <c r="A10" s="26"/>
+      <c r="B10" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25" t="s">
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="24"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
     </row>
     <row r="11" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+    </row>
+    <row r="12" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="22"/>
+      <c r="B12" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="16"/>
-    </row>
-    <row r="12" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="21"/>
-      <c r="B12" s="25" t="s">
+      <c r="C12" s="27"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="29" t="s">
+      <c r="G12" s="31"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+    </row>
+    <row r="13" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="22"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="34"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="22"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="22"/>
+    </row>
+    <row r="16" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="22"/>
+      <c r="B16" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="21"/>
-    </row>
-    <row r="13" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="21"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="21"/>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="21"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="21"/>
-    </row>
-    <row r="16" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="21"/>
-      <c r="B16" s="33" t="s">
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="34" t="s">
+      <c r="F16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="34" t="s">
+      <c r="G16" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="21"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
     </row>
     <row r="17" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="16"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
     </row>
     <row r="18" customFormat="false" ht="19.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="21"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="38" t="n">
+      <c r="A18" s="22"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="41" t="n">
         <f aca="false">PRODUCT(E18,F18)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="21"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="22"/>
     </row>
     <row r="19" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="43"/>
-      <c r="B19" s="44" t="s">
+      <c r="A19" s="46"/>
+      <c r="B19" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="47"/>
-      <c r="H19" s="43"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="46"/>
     </row>
     <row r="20" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="43"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="43"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="46"/>
     </row>
     <row r="21" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="52"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="52"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="55"/>
     </row>
     <row r="22" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="32"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="30">
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
@@ -1095,7 +1135,6 @@
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:C7"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
@@ -1120,14 +1159,14 @@
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="F21:G21"/>
   </mergeCells>
-  <conditionalFormatting sqref="B17:G18">
+  <conditionalFormatting sqref="B17:H18">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>ISODD(ROW())</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0" right="0.0298611111111111" top="0" bottom="0" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/app/views/excel_templates/comprobante-descartables-sa.xlsx
+++ b/app/views/excel_templates/comprobante-descartables-sa.xlsx
@@ -350,7 +350,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="57">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -373,10 +373,6 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -451,10 +447,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -484,10 +476,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -683,9 +671,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>260640</xdr:colOff>
+      <xdr:colOff>260280</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>97200</xdr:rowOff>
+      <xdr:rowOff>96840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -699,7 +687,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="450360" y="238320"/>
-          <a:ext cx="2215080" cy="691200"/>
+          <a:ext cx="2214720" cy="690840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -825,10 +813,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -841,7 +829,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="7.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="6.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -853,9 +841,6 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4"/>
@@ -865,266 +850,255 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="4"/>
+      <c r="H2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="7"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7"/>
-      <c r="B6" s="16" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="20" t="s">
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="21" t="n">
+      <c r="G7" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="17"/>
+      <c r="H7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="7"/>
+      <c r="H8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="25"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="26"/>
-      <c r="B10" s="27" t="s">
+      <c r="A10" s="24"/>
+      <c r="B10" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27" t="s">
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="22"/>
-      <c r="B12" s="27" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="31" t="s">
+      <c r="C12" s="25"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="31"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="22"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="34"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="22"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="22"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="22"/>
-      <c r="B16" s="36" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="37" t="s">
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="37" t="s">
+      <c r="F16" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="37" t="s">
+      <c r="G16" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
+      <c r="H16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="19.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="22"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="41" t="n">
+      <c r="A18" s="21"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="38" t="n">
         <f aca="false">PRODUCT(E18,F18)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="42"/>
-      <c r="I18" s="22"/>
+      <c r="H18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="46"/>
-      <c r="B19" s="47" t="s">
+      <c r="A19" s="43"/>
+      <c r="B19" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="49" t="s">
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="50"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="46"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="46"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="46"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="55"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="55"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="35"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="35"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H26" s="0"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H27" s="0"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -1159,14 +1133,14 @@
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="F21:G21"/>
   </mergeCells>
-  <conditionalFormatting sqref="B17:H18">
+  <conditionalFormatting sqref="B17:G18">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>ISODD(ROW())</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0" right="0.0298611111111111" top="0" bottom="0" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="1.25" right="1.25" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
